--- a/Stochastic_engine/scenario_parameters.xlsx
+++ b/Stochastic_engine/scenario_parameters.xlsx
@@ -519,7 +519,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>5420.730743926406</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -543,7 +543,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>327.65</v>
       </c>
     </row>
     <row r="8" spans="1:2">

--- a/Stochastic_engine/scenario_parameters.xlsx
+++ b/Stochastic_engine/scenario_parameters.xlsx
@@ -129,7 +129,7 @@
     <t>MID</t>
   </si>
   <si>
-    <t>2025</t>
+    <t>2020</t>
   </si>
 </sst>
 </file>
@@ -503,7 +503,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>5958.610736490592</v>
+        <v>5426.762192059843</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -511,7 +511,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>31877.26319083061</v>
+        <v>22403.10946375213</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -519,7 +519,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>5420.730743926406</v>
+        <v>4574.0666666</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -527,7 +527,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>6511.306216703428</v>
+        <v>6511.306216703429</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -535,7 +535,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>210.5145045026957</v>
+        <v>179.3685787598049</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -596,10 +596,10 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>510.3150064798497</v>
+        <v>329.1468531266821</v>
       </c>
       <c r="C2">
-        <v>137.6097747242765</v>
+        <v>88.75659882689112</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -607,10 +607,10 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>325.3258166309042</v>
+        <v>209.8311188682598</v>
       </c>
       <c r="C3">
-        <v>87.72623138672627</v>
+        <v>56.58233175214308</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -618,10 +618,10 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>237.61542489218</v>
+        <v>153.2590034871113</v>
       </c>
       <c r="C4">
-        <v>64.07455135599123</v>
+        <v>41.32729132877117</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -629,10 +629,10 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>144.1639893305575</v>
+        <v>92.98398600828769</v>
       </c>
       <c r="C5">
-        <v>38.87476135960811</v>
+        <v>25.07373916859674</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -640,10 +640,10 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>62.35411485425664</v>
+        <v>40.21763111641647</v>
       </c>
       <c r="C6">
-        <v>16.81419434912253</v>
+        <v>10.84494691916076</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -651,10 +651,10 @@
         <v>17</v>
       </c>
       <c r="B7">
-        <v>23.12364873111819</v>
+        <v>14.91446678230278</v>
       </c>
       <c r="C7">
-        <v>6.235442917193778</v>
+        <v>4.021783384343503</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -662,10 +662,10 @@
         <v>18</v>
       </c>
       <c r="B8">
-        <v>22.64522841254333</v>
+        <v>14.60589160749652</v>
       </c>
       <c r="C8">
-        <v>6.106433753389769</v>
+        <v>3.938574072943293</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -673,10 +673,10 @@
         <v>19</v>
       </c>
       <c r="B9">
-        <v>22.32628153349343</v>
+        <v>14.40017482429234</v>
       </c>
       <c r="C9">
-        <v>6.020427644187097</v>
+        <v>3.883101198676486</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -684,10 +684,10 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>22.00733465444352</v>
+        <v>14.19445804108817</v>
       </c>
       <c r="C10">
-        <v>5.934421534984424</v>
+        <v>3.827628324409679</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -717,10 +717,10 @@
         <v>23</v>
       </c>
       <c r="B13">
-        <v>20.89102057776885</v>
+        <v>13.47444929987355</v>
       </c>
       <c r="C13">
-        <v>5.633400152775069</v>
+        <v>3.633473264475855</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -728,10 +728,10 @@
         <v>24</v>
       </c>
       <c r="B14">
-        <v>38.27362548598872</v>
+        <v>24.68601398450116</v>
       </c>
       <c r="C14">
-        <v>10.32073310432074</v>
+        <v>6.656744912016833</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -739,10 +739,10 @@
         <v>25</v>
       </c>
       <c r="B15">
-        <v>62.67306173330654</v>
+        <v>40.42334789962064</v>
       </c>
       <c r="C15">
-        <v>16.90020045832521</v>
+        <v>10.90041979342756</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -750,10 +750,10 @@
         <v>26</v>
       </c>
       <c r="B16">
-        <v>143.5260955724577</v>
+        <v>92.57255244187934</v>
       </c>
       <c r="C16">
-        <v>38.70274914120277</v>
+        <v>24.96279342006313</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -761,10 +761,10 @@
         <v>27</v>
       </c>
       <c r="B17">
-        <v>317.1926712151316</v>
+        <v>204.5853408965533</v>
       </c>
       <c r="C17">
-        <v>85.53307560205812</v>
+        <v>55.16777345833951</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -772,10 +772,10 @@
         <v>28</v>
       </c>
       <c r="B18">
-        <v>593.2411950328253</v>
+        <v>382.6332167597679</v>
       </c>
       <c r="C18">
-        <v>159.9713631169714</v>
+        <v>103.1795461362609</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -783,10 +783,10 @@
         <v>29</v>
       </c>
       <c r="B19">
-        <v>720.3415263342126</v>
+        <v>464.6113548666321</v>
       </c>
       <c r="C19">
-        <v>194.2447976342365</v>
+        <v>125.2854865315835</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -794,10 +794,10 @@
         <v>30</v>
       </c>
       <c r="B20">
-        <v>904.3738755460088</v>
+        <v>583.3099387754419</v>
       </c>
       <c r="C20">
-        <v>243.8703226441788</v>
+        <v>157.2933349835311</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -805,10 +805,10 @@
         <v>31</v>
       </c>
       <c r="B21">
-        <v>968.003777916465</v>
+        <v>624.3504370246751</v>
       </c>
       <c r="C21">
-        <v>261.028541430112</v>
+        <v>168.3601733997591</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -816,10 +816,10 @@
         <v>32</v>
       </c>
       <c r="B22">
-        <v>949.8238058106203</v>
+        <v>612.624580382037</v>
       </c>
       <c r="C22">
-        <v>256.1261932055597</v>
+        <v>165.1982195665511</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -827,10 +827,10 @@
         <v>33</v>
       </c>
       <c r="B23">
-        <v>899.7491457997851</v>
+        <v>580.3270454189815</v>
       </c>
       <c r="C23">
-        <v>242.62323406074</v>
+        <v>156.4889783066624</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -838,10 +838,10 @@
         <v>34</v>
       </c>
       <c r="B24">
-        <v>814.4308556539352</v>
+        <v>525.2978059118642</v>
       </c>
       <c r="C24">
-        <v>219.616599849025</v>
+        <v>141.6499844402915</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -849,10 +849,10 @@
         <v>35</v>
       </c>
       <c r="B25">
-        <v>661.6553005890302</v>
+        <v>426.7594667570637</v>
       </c>
       <c r="C25">
-        <v>178.4196735409448</v>
+        <v>115.078477666491</v>
       </c>
     </row>
   </sheetData>

--- a/Stochastic_engine/scenario_parameters.xlsx
+++ b/Stochastic_engine/scenario_parameters.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Capacities" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="EV Load Profiles" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Scenario and Year" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Capacities" sheetId="1" r:id="rId1"/>
+    <sheet name="EV Load Profiles" sheetId="2" r:id="rId2"/>
+    <sheet name="Scenario and Year" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Value (MW)</t>
   </si>
@@ -137,22 +136,26 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -167,26 +170,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -474,18 +486,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
@@ -496,7 +502,7 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>33447.79831831366</v>
       </c>
     </row>
@@ -504,7 +510,7 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>65725.51647471843</v>
       </c>
     </row>
@@ -512,7 +518,7 @@
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>22244.77349260672</v>
       </c>
     </row>
@@ -520,7 +526,7 @@
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>15732.22472633081</v>
       </c>
     </row>
@@ -528,7 +534,7 @@
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>106.7083931783611</v>
       </c>
     </row>
@@ -536,7 +542,7 @@
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>3136.006642671553</v>
       </c>
     </row>
@@ -544,7 +550,7 @@
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>0.2</v>
       </c>
     </row>
@@ -552,7 +558,7 @@
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>0.8</v>
       </c>
     </row>
@@ -560,28 +566,22 @@
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>0.85</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
@@ -595,10 +595,10 @@
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>1380.579839078945</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>372.2823711311823</v>
       </c>
     </row>
@@ -606,10 +606,10 @@
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>880.119647412827</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>237.3300115961287</v>
       </c>
     </row>
@@ -617,10 +617,10 @@
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>642.8324875711335</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>173.3439790579567</v>
       </c>
     </row>
@@ -628,10 +628,10 @@
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>390.0138045398018</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>105.169769844559</v>
       </c>
     </row>
@@ -639,10 +639,10 @@
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>168.6895990874585</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>45.48825222259133</v>
       </c>
     </row>
@@ -650,10 +650,10 @@
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>62.55752395826466</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>16.86904494188169</v>
       </c>
     </row>
@@ -661,10 +661,10 @@
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>61.26323035912815</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>16.52003021894621</v>
       </c>
     </row>
@@ -672,10 +672,10 @@
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>60.40036795970382</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>16.28735373698922</v>
       </c>
     </row>
@@ -683,10 +683,10 @@
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>59.53750556027948</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>16.05467725503224</v>
       </c>
     </row>
@@ -694,10 +694,10 @@
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>0</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>0</v>
       </c>
     </row>
@@ -705,10 +705,10 @@
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>0</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>0</v>
       </c>
     </row>
@@ -716,10 +716,10 @@
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>56.51748716229429</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>15.24030956818277</v>
       </c>
     </row>
@@ -727,10 +727,10 @@
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>103.5434879309208</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>27.92117783483867</v>
       </c>
     </row>
@@ -738,10 +738,10 @@
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>169.5524614868828</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>45.72092870454831</v>
       </c>
     </row>
@@ -749,10 +749,10 @@
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>388.2880797409532</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>104.704416880645</v>
       </c>
     </row>
@@ -760,10 +760,10 @@
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>858.1166562275064</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>231.3967613062255</v>
       </c>
     </row>
@@ -771,10 +771,10 @@
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>1604.924062929273</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>432.7782564399994</v>
       </c>
     </row>
@@ -782,10 +782,10 @@
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>1948.774729099872</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>525.4998344998594</v>
       </c>
     </row>
@@ -793,10 +793,10 @@
       <c r="A20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>2446.646333567717</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>659.7541645890421</v>
       </c>
     </row>
@@ -804,10 +804,10 @@
       <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>2618.787382252873</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>706.1731227394613</v>
       </c>
     </row>
@@ -815,10 +815,10 @@
       <c r="A22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>2569.604225485685</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>692.9105632679131</v>
       </c>
     </row>
@@ -826,10 +826,10 @@
       <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>2434.134828776064</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>656.3803556006658</v>
       </c>
     </row>
@@ -837,10 +837,10 @@
       <c r="A24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>2203.319136930053</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>594.1393966771711</v>
       </c>
     </row>
@@ -848,39 +848,33 @@
       <c r="A25" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>1790.008047605794</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>482.6873618197735</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="B1" s="1" t="n">
+      <c r="B1" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -888,7 +882,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -896,6 +890,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>